--- a/docment/テスト項目関連/win8_chrome55.xlsx
+++ b/docment/テスト項目関連/win8_chrome55.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\150012\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="22050" windowHeight="8670" tabRatio="603" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="603"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="171">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -2119,6 +2119,37 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝、おまけ出現後</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>11でokなはず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瀬戸</t>
+    <rPh sb="0" eb="2">
+      <t>セト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2457,7 +2488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2531,9 +2562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2561,9 +2589,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2574,12 +2599,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2612,206 +2631,212 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2822,43 +2847,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3168,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3180,23 +3184,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="122">
+        <v>42761</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3437,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3450,28 +3460,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="70" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="71" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
@@ -3479,33 +3489,33 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3513,131 +3523,159 @@
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="2"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="55" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="48" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3651,405 +3689,509 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="56"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="58"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="2"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="2"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="2"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="2"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="2"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="67"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="122"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="2"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="67"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B3:H3"/>
@@ -4066,26 +4208,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4102,8 +4224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4115,28 +4237,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="70" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="71" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
@@ -4144,229 +4266,275 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="6"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="6"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="55" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="48" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -4380,405 +4548,513 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="56"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="2"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="67"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="122"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="2"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="67"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="2"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="2"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4795,34 +5071,10 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J15 J19:J42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J15 J19:J42">
       <formula1>$M$2:$M$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -4837,7 +5089,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4850,16 +5102,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
@@ -4874,14 +5126,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4891,18 +5143,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" t="s">
@@ -4911,95 +5163,115 @@
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="3"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="3"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="3"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="3"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5008,30 +5280,30 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="16"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5039,77 +5311,85 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="24"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="3"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="16"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="14"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5117,93 +5397,109 @@
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K18" s="22"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="3"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="3"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="81"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="14"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5211,15 +5507,15 @@
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="17"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5227,31 +5523,31 @@
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="24"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5259,43 +5555,44 @@
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="30"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
@@ -5312,16 +5609,15 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:K28 J5:K10 J13:K15 J19:K21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:K28 J5:K10 J13:K15 J19:K21 J4 J18">
       <formula1>$M$3:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -5345,16 +5641,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
@@ -5369,14 +5665,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5386,16 +5682,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5406,96 +5702,96 @@
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="28"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="28"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="28"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="28"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
@@ -5503,30 +5799,30 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="81"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="21"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
       <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -5534,15 +5830,15 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -5550,45 +5846,45 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="17"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="109"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="16"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="14"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5596,31 +5892,31 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5628,61 +5924,61 @@
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="28"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="15"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="16"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="103"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
       <c r="I22" s="14"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5690,63 +5986,63 @@
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="29"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="30"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="30"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="17"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5754,47 +6050,40 @@
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="30"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -5811,8 +6100,15 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5830,7 +6126,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5843,16 +6139,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -5870,14 +6166,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="113"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5887,17 +6183,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="2" t="s">
         <v>161</v>
       </c>
@@ -5905,129 +6201,155 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6045,7 +6367,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6056,16 +6378,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -6083,14 +6405,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="113"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6100,33 +6422,33 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2" t="s">
         <v>161</v>
       </c>
@@ -6134,35 +6456,39 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="58"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="2" t="s">
         <v>161</v>
       </c>
@@ -6170,17 +6496,17 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="58"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="2" t="s">
         <v>161</v>
       </c>
@@ -6188,17 +6514,17 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="2" t="s">
         <v>161</v>
       </c>
@@ -6206,16 +6532,16 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2" t="s">
         <v>161</v>
@@ -6224,16 +6550,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>161</v>
@@ -6244,16 +6570,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2" t="s">
         <v>161</v>
@@ -6264,16 +6590,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2" t="s">
         <v>161</v>
@@ -6284,16 +6610,16 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2" t="s">
         <v>161</v>
@@ -6302,16 +6628,16 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="109"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2" t="s">
         <v>161</v>
@@ -6321,6 +6647,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6330,11 +6661,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6351,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6364,18 +6690,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -6393,14 +6719,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6410,33 +6736,33 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="49"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="2" t="s">
         <v>162</v>
       </c>
@@ -6445,16 +6771,16 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="2" t="s">
         <v>162</v>
       </c>
@@ -6463,16 +6789,16 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="47"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="2" t="s">
         <v>162</v>
       </c>
@@ -6481,16 +6807,16 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="2" t="s">
         <v>162</v>
       </c>
@@ -6499,16 +6825,16 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="49"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="2" t="s">
         <v>162</v>
       </c>
@@ -6517,16 +6843,16 @@
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="2" t="s">
         <v>162</v>
       </c>
@@ -6535,16 +6861,16 @@
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="49"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="2" t="s">
         <v>162</v>
       </c>
@@ -6553,16 +6879,16 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="49"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="2" t="s">
         <v>162</v>
       </c>
@@ -6571,16 +6897,16 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="126" t="s">
+      <c r="B13" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="49"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="2" t="s">
         <v>162</v>
       </c>
@@ -6589,16 +6915,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="27"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="2" t="s">
         <v>162</v>
       </c>
@@ -6607,16 +6933,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="2" t="s">
         <v>162</v>
       </c>
@@ -6625,15 +6951,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="15"/>
       <c r="J16" s="2" t="s">
         <v>162</v>
@@ -6643,15 +6969,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="15"/>
       <c r="J17" s="2" t="s">
         <v>162</v>
@@ -6660,33 +6986,33 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="55" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="48" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -6700,405 +7026,515 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="56"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="67"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="2"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="2"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="67"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="60"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="2"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="2"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B44:H44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -7115,32 +7551,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7157,8 +7567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7172,18 +7582,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="18" t="s">
         <v>57</v>
       </c>
@@ -7201,14 +7611,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -7218,16 +7628,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7235,16 +7645,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="6" t="s">
         <v>163</v>
       </c>
@@ -7253,16 +7663,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="6" t="s">
         <v>163</v>
       </c>
@@ -7271,16 +7681,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="6" t="s">
         <v>163</v>
       </c>
@@ -7289,16 +7699,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="6" t="s">
         <v>162</v>
       </c>
@@ -7307,15 +7717,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="11"/>
       <c r="J9" s="6" t="s">
         <v>162</v>
@@ -7325,15 +7735,15 @@
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="17"/>
       <c r="J10" s="6" t="s">
         <v>162</v>
@@ -7343,16 +7753,16 @@
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="24"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="6" t="s">
         <v>162</v>
       </c>
@@ -7361,16 +7771,16 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="24"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="6" t="s">
         <v>162</v>
       </c>
@@ -7379,16 +7789,16 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="24"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="6" t="s">
         <v>162</v>
       </c>
@@ -7397,16 +7807,16 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="24"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="6" t="s">
         <v>162</v>
       </c>
@@ -7415,15 +7825,15 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="13"/>
       <c r="J15" s="6" t="s">
         <v>162</v>
@@ -7433,15 +7843,15 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="13"/>
       <c r="J16" s="6" t="s">
         <v>162</v>
@@ -7451,15 +7861,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="13"/>
       <c r="J17" s="6" t="s">
         <v>162</v>
@@ -7469,15 +7879,15 @@
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="13"/>
       <c r="J18" s="6" t="s">
         <v>162</v>
@@ -7487,15 +7897,15 @@
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
         <v>162</v>
@@ -7505,16 +7915,16 @@
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="34"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="6" t="s">
         <v>162</v>
       </c>
@@ -7523,19 +7933,19 @@
     </row>
     <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="35" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="33" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -7549,405 +7959,503 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="119"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="2"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="67"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="122"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="2"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="2"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="2"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="2"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="2"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="67"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="122"/>
       <c r="J45" s="2"/>
       <c r="K45" s="6"/>
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="2"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K46" s="6"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="2"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B23:H23"/>
@@ -7964,20 +8472,6 @@
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7994,8 +8488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I18"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8009,27 +8503,27 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="79" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="71" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
@@ -8037,47 +8531,47 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
       <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="53"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="4" t="s">
         <v>164</v>
       </c>
@@ -8086,15 +8580,15 @@
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="53"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="4" t="s">
         <v>164</v>
       </c>
@@ -8103,15 +8597,15 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="53"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="4" t="s">
         <v>164</v>
       </c>
@@ -8120,15 +8614,15 @@
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="53"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="4" t="s">
         <v>164</v>
       </c>
@@ -8137,15 +8631,15 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="53"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="4" t="s">
         <v>164</v>
       </c>
@@ -8154,15 +8648,15 @@
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="53"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="4" t="s">
         <v>164</v>
       </c>
@@ -8171,14 +8665,14 @@
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="11"/>
       <c r="I11" s="4" t="s">
         <v>164</v>
@@ -8188,15 +8682,15 @@
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="32"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="4" t="s">
         <v>164</v>
       </c>
@@ -8205,14 +8699,14 @@
     </row>
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="11"/>
       <c r="I13" s="4" t="s">
         <v>164</v>
@@ -8222,14 +8716,14 @@
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="11"/>
       <c r="I14" s="4" t="s">
         <v>164</v>
@@ -8239,15 +8733,15 @@
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="32"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="4" t="s">
         <v>164</v>
       </c>
@@ -8256,15 +8750,15 @@
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="32"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="4" t="s">
         <v>164</v>
       </c>
@@ -8273,15 +8767,15 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="4" t="s">
         <v>164</v>
       </c>
@@ -8290,15 +8784,15 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="57"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="4" t="s">
         <v>164</v>
       </c>
@@ -8307,18 +8801,18 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="55" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="48" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -8332,380 +8826,491 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="56"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="58"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="2"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="2"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="2"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="2"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="2"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="2"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="2"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="2"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="2"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="2"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="2"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="2"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="67"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="2"/>
       <c r="J35" s="6"/>
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="2"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="2"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="2"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="2"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="2"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="2"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="2"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="67"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="115" t="s">
+      <c r="B44" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="2"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="2"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="122">
+        <v>42761</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
@@ -8722,33 +9327,6 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8765,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8783,26 +9361,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="70" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="71" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
@@ -8810,50 +9388,50 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="25"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="2" t="s">
         <v>165</v>
       </c>
@@ -8862,16 +9440,18 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="53"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="122">
+        <v>42761</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>165</v>
       </c>
@@ -8880,162 +9460,198 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="92" t="s">
+    <row r="8" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="92" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="40"/>
+      <c r="B9" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="92" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" s="42" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="40"/>
+      <c r="B10" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="87" t="s">
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="77" t="s">
         <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -9049,405 +9665,513 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="85"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="88"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="2"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="2"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="2"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="67"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="2"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="67"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="2"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="2"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="122">
+        <v>42761</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -9464,30 +10188,6 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
